--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efnb3</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +543,10 @@
         <v>0.45995</v>
       </c>
       <c r="I2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N2">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O2">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P2">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q2">
-        <v>0.4314766930388889</v>
+        <v>0.6234121415555555</v>
       </c>
       <c r="R2">
-        <v>3.88329023735</v>
+        <v>5.610709274</v>
       </c>
       <c r="S2">
-        <v>0.08527139698827957</v>
+        <v>0.08890679160040912</v>
       </c>
       <c r="T2">
-        <v>0.08527139698827954</v>
+        <v>0.08890679160040912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,10 +605,10 @@
         <v>0.45995</v>
       </c>
       <c r="I3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +623,10 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P3">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q3">
         <v>0.02781307428888889</v>
@@ -632,10 +635,10 @@
         <v>0.2503176686</v>
       </c>
       <c r="S3">
-        <v>0.005496611375341654</v>
+        <v>0.003966511132424873</v>
       </c>
       <c r="T3">
-        <v>0.005496611375341652</v>
+        <v>0.003966511132424872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,10 +667,10 @@
         <v>0.45995</v>
       </c>
       <c r="I4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N4">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q4">
-        <v>0.1059613389888889</v>
+        <v>0.1212702125777778</v>
       </c>
       <c r="R4">
-        <v>0.9536520509</v>
+        <v>1.0914319132</v>
       </c>
       <c r="S4">
-        <v>0.02094080989333263</v>
+        <v>0.01729473136356775</v>
       </c>
       <c r="T4">
-        <v>0.02094080989333262</v>
+        <v>0.01729473136356775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>2.867988</v>
       </c>
       <c r="I5">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J5">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N5">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O5">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P5">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q5">
-        <v>2.690444565529334</v>
+        <v>3.887245441973333</v>
       </c>
       <c r="R5">
-        <v>24.214001089764</v>
+        <v>34.98520897776</v>
       </c>
       <c r="S5">
-        <v>0.5317041924244417</v>
+        <v>0.5543724566332736</v>
       </c>
       <c r="T5">
-        <v>0.5317041924244416</v>
+        <v>0.5543724566332736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>2.867988</v>
       </c>
       <c r="I6">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J6">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +809,10 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O6">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P6">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q6">
         <v>0.1734265970293334</v>
@@ -818,10 +821,10 @@
         <v>1.560839373264</v>
       </c>
       <c r="S6">
-        <v>0.03427375902846692</v>
+        <v>0.02473291951225339</v>
       </c>
       <c r="T6">
-        <v>0.03427375902846691</v>
+        <v>0.02473291951225339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,10 +853,10 @@
         <v>2.867988</v>
       </c>
       <c r="I7">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J7">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N7">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q7">
-        <v>0.6607149661573335</v>
+        <v>0.7561724414186669</v>
       </c>
       <c r="R7">
-        <v>5.946434695416001</v>
+        <v>6.805551972768002</v>
       </c>
       <c r="S7">
-        <v>0.1305750439925193</v>
+        <v>0.1078401609173518</v>
       </c>
       <c r="T7">
-        <v>0.1305750439925193</v>
+        <v>0.1078401609173518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -906,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H8">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I8">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J8">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N8">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O8">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P8">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q8">
-        <v>0.7405911175487777</v>
+        <v>0.514425142311111</v>
       </c>
       <c r="R8">
-        <v>6.665320057939</v>
+        <v>4.6298262808</v>
       </c>
       <c r="S8">
-        <v>0.1463607193837551</v>
+        <v>0.07336380842269655</v>
       </c>
       <c r="T8">
-        <v>0.146360719383755</v>
+        <v>0.07336380842269656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -968,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H9">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I9">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J9">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +995,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O9">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P9">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q9">
-        <v>0.04773865217377777</v>
+        <v>0.02295069945777778</v>
       </c>
       <c r="R9">
-        <v>0.429647869564</v>
+        <v>0.20655629512</v>
       </c>
       <c r="S9">
-        <v>0.009434441365825301</v>
+        <v>0.003273072366997578</v>
       </c>
       <c r="T9">
-        <v>0.009434441365825299</v>
+        <v>0.003273072366997578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1030,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H10">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I10">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J10">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1051,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N10">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q10">
-        <v>0.1818731526517778</v>
+        <v>0.1000693477155556</v>
       </c>
       <c r="R10">
-        <v>1.636858373866</v>
+        <v>0.90062412944</v>
       </c>
       <c r="S10">
-        <v>0.03594302554803794</v>
+        <v>0.01427120848294054</v>
       </c>
       <c r="T10">
-        <v>0.03594302554803794</v>
+        <v>0.01427120848294054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.155836</v>
+      </c>
+      <c r="H11">
+        <v>0.467508</v>
+      </c>
+      <c r="I11">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J11">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.066173333333333</v>
+      </c>
+      <c r="N11">
+        <v>12.19852</v>
+      </c>
+      <c r="O11">
+        <v>0.8070107842953054</v>
+      </c>
+      <c r="P11">
+        <v>0.8070107842953055</v>
+      </c>
+      <c r="Q11">
+        <v>0.6336561875733332</v>
+      </c>
+      <c r="R11">
+        <v>5.702905688159999</v>
+      </c>
+      <c r="S11">
+        <v>0.09036772763892612</v>
+      </c>
+      <c r="T11">
+        <v>0.09036772763892612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.155836</v>
+      </c>
+      <c r="H12">
+        <v>0.467508</v>
+      </c>
+      <c r="I12">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J12">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.03600419273120554</v>
+      </c>
+      <c r="P12">
+        <v>0.03600419273120554</v>
+      </c>
+      <c r="Q12">
+        <v>0.02827010486933333</v>
+      </c>
+      <c r="R12">
+        <v>0.2544309438239999</v>
+      </c>
+      <c r="S12">
+        <v>0.004031689719529704</v>
+      </c>
+      <c r="T12">
+        <v>0.004031689719529704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.155836</v>
+      </c>
+      <c r="H13">
+        <v>0.467508</v>
+      </c>
+      <c r="I13">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J13">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7909786666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.372936</v>
+      </c>
+      <c r="O13">
+        <v>0.156985022973489</v>
+      </c>
+      <c r="P13">
+        <v>0.156985022973489</v>
+      </c>
+      <c r="Q13">
+        <v>0.1232629514986667</v>
+      </c>
+      <c r="R13">
+        <v>1.109366563488</v>
+      </c>
+      <c r="S13">
+        <v>0.01757892220962894</v>
+      </c>
+      <c r="T13">
+        <v>0.01757892220962894</v>
       </c>
     </row>
   </sheetData>
